--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1082.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1082.xlsx
@@ -354,7 +354,7 @@
         <v>2.24924529649401</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.966083087952379</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1082.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1082.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9990883703114739</v>
+        <v>1.190641045570374</v>
       </c>
       <c r="B1">
-        <v>2.24924529649401</v>
+        <v>2.472947835922241</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.966083087952379</v>
+        <v>2.27983021736145</v>
       </c>
       <c r="E1">
-        <v>1.289126073867717</v>
+        <v>1.1801438331604</v>
       </c>
     </row>
   </sheetData>
